--- a/工具使用.xlsx
+++ b/工具使用.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\学习\java后台\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F457CA74-9EE8-4E1F-8B7A-46646414954D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF02018C-FBD0-4A53-9A4B-62F10AFB1CAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{D058C65E-693F-4A42-B721-7830FAE1B378}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="315">
   <si>
     <t>02 MyBatis 基础</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2499,6 +2499,10 @@
   </si>
   <si>
     <t>到这里，我们就可以把本地和远端的代码都回退到某一个指定的版本了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新一点点</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2613,9 +2617,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -2624,6 +2625,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5211,8 +5215,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BC3D474-3C8A-464C-9E9D-5CB60A213968}">
   <dimension ref="A1:V1401"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A693" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="V707" sqref="V707"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A798" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G815" sqref="G815"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
@@ -5222,49 +5226,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
     </row>
     <row r="2" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
     </row>
     <row r="3" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
     </row>
@@ -5288,7 +5292,7 @@
     </row>
     <row r="7" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="8" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -5317,7 +5321,7 @@
     </row>
     <row r="24" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="25" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="5" t="s">
         <v>10</v>
       </c>
     </row>
@@ -5486,7 +5490,7 @@
     </row>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="6" t="s">
+      <c r="A66" s="5" t="s">
         <v>42</v>
       </c>
     </row>
@@ -5569,7 +5573,7 @@
       </c>
     </row>
     <row r="96" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C96" s="7" t="s">
+      <c r="C96" s="6" t="s">
         <v>53</v>
       </c>
     </row>
@@ -5654,7 +5658,7 @@
     </row>
     <row r="144" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="145" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="6" t="s">
+      <c r="A145" s="5" t="s">
         <v>62</v>
       </c>
     </row>
@@ -5703,7 +5707,7 @@
     <row r="164" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="165" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="166" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="6" t="s">
+      <c r="A166" s="5" t="s">
         <v>69</v>
       </c>
     </row>
@@ -5729,7 +5733,7 @@
     </row>
     <row r="175" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="176" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="6" t="s">
+      <c r="A176" s="5" t="s">
         <v>72</v>
       </c>
     </row>
@@ -5789,7 +5793,7 @@
     </row>
     <row r="199" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="200" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A200" s="6" t="s">
+      <c r="A200" s="5" t="s">
         <v>79</v>
       </c>
     </row>
@@ -5858,7 +5862,7 @@
     </row>
     <row r="224" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="225" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A225" s="6" t="s">
+      <c r="A225" s="5" t="s">
         <v>85</v>
       </c>
     </row>
@@ -5910,7 +5914,7 @@
       </c>
     </row>
     <row r="247" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C247" s="7" t="s">
+      <c r="C247" s="6" t="s">
         <v>152</v>
       </c>
     </row>
@@ -5953,7 +5957,7 @@
     </row>
     <row r="265" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="266" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A266" s="6" t="s">
+      <c r="A266" s="5" t="s">
         <v>105</v>
       </c>
     </row>
@@ -6012,7 +6016,7 @@
     </row>
     <row r="284" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="285" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A285" s="6" t="s">
+      <c r="A285" s="5" t="s">
         <v>115</v>
       </c>
     </row>
@@ -6058,7 +6062,7 @@
     </row>
     <row r="302" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="303" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A303" s="6" t="s">
+      <c r="A303" s="5" t="s">
         <v>122</v>
       </c>
     </row>
@@ -6117,7 +6121,7 @@
     </row>
     <row r="329" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="330" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A330" s="6" t="s">
+      <c r="A330" s="5" t="s">
         <v>130</v>
       </c>
     </row>
@@ -6158,7 +6162,7 @@
     </row>
     <row r="346" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="347" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A347" s="6" t="s">
+      <c r="A347" s="5" t="s">
         <v>136</v>
       </c>
     </row>
@@ -6206,7 +6210,7 @@
     </row>
     <row r="362" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="363" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A363" s="6" t="s">
+      <c r="A363" s="5" t="s">
         <v>144</v>
       </c>
     </row>
@@ -6250,7 +6254,7 @@
     <row r="385" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="386" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="387" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A387" s="6" t="s">
+      <c r="A387" s="5" t="s">
         <v>149</v>
       </c>
     </row>
@@ -6266,7 +6270,7 @@
     </row>
     <row r="390" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="391" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A391" s="6" t="s">
+      <c r="A391" s="5" t="s">
         <v>153</v>
       </c>
     </row>
@@ -6553,7 +6557,7 @@
     <row r="492" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="493" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="494" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A494" s="6" t="s">
+      <c r="A494" s="5" t="s">
         <v>198</v>
       </c>
     </row>
@@ -7056,7 +7060,7 @@
     <row r="719" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="720" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="721" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A721" s="6" t="s">
+      <c r="A721" s="5" t="s">
         <v>266</v>
       </c>
     </row>
@@ -7248,7 +7252,7 @@
     </row>
     <row r="782" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="783" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A783" s="6" t="s">
+      <c r="A783" s="5" t="s">
         <v>297</v>
       </c>
     </row>
@@ -7307,12 +7311,12 @@
       </c>
     </row>
     <row r="804" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C804" s="8" t="s">
+      <c r="C804" s="7" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="805" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C805" s="8" t="s">
+      <c r="C805" s="7" t="s">
         <v>307</v>
       </c>
     </row>
@@ -7347,7 +7351,11 @@
       </c>
     </row>
     <row r="812" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="813" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="813" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B813" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
     <row r="814" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="815" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="816" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7965,26 +7973,26 @@
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
@@ -7995,24 +8003,24 @@
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
